--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Colq-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Colq-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.004118333333333333</v>
+        <v>0.0007963333333333334</v>
       </c>
       <c r="H2">
-        <v>0.012355</v>
+        <v>0.002389</v>
       </c>
       <c r="I2">
-        <v>0.01284300864239367</v>
+        <v>0.0106576135689399</v>
       </c>
       <c r="J2">
-        <v>0.01284300864239367</v>
+        <v>0.01065761356893991</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1421586666666667</v>
+        <v>6.072364333333334</v>
       </c>
       <c r="N2">
-        <v>0.426476</v>
+        <v>18.217093</v>
       </c>
       <c r="O2">
-        <v>0.008210963676175792</v>
+        <v>0.4407767221912973</v>
       </c>
       <c r="P2">
-        <v>0.008210963676175792</v>
+        <v>0.4407767221912974</v>
       </c>
       <c r="Q2">
-        <v>0.0005854567755555556</v>
+        <v>0.004835626130777778</v>
       </c>
       <c r="R2">
-        <v>0.00526911098</v>
+        <v>0.04352063517700001</v>
       </c>
       <c r="S2">
-        <v>0.0001054534774555062</v>
+        <v>0.004697627975298825</v>
       </c>
       <c r="T2">
-        <v>0.0001054534774555062</v>
+        <v>0.004697627975298826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.004118333333333333</v>
+        <v>0.0007963333333333334</v>
       </c>
       <c r="H3">
-        <v>0.012355</v>
+        <v>0.002389</v>
       </c>
       <c r="I3">
-        <v>0.01284300864239367</v>
+        <v>0.0106576135689399</v>
       </c>
       <c r="J3">
-        <v>0.01284300864239367</v>
+        <v>0.01065761356893991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.072364333333334</v>
+        <v>7.704144333333335</v>
       </c>
       <c r="N3">
-        <v>18.217093</v>
+        <v>23.112433</v>
       </c>
       <c r="O3">
-        <v>0.3507345991533317</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="P3">
-        <v>0.3507345991533317</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="Q3">
-        <v>0.02500802044611111</v>
+        <v>0.006135066937444446</v>
       </c>
       <c r="R3">
-        <v>0.225072184015</v>
+        <v>0.05521560243700001</v>
       </c>
       <c r="S3">
-        <v>0.004504487488112719</v>
+        <v>0.00595998559364108</v>
       </c>
       <c r="T3">
-        <v>0.00450448748811272</v>
+        <v>0.005959985593641081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.004118333333333333</v>
+        <v>0.05547833333333333</v>
       </c>
       <c r="H4">
-        <v>0.012355</v>
+        <v>0.166435</v>
       </c>
       <c r="I4">
-        <v>0.01284300864239367</v>
+        <v>0.7424863601283017</v>
       </c>
       <c r="J4">
-        <v>0.01284300864239367</v>
+        <v>0.7424863601283018</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.09875133333333</v>
+        <v>6.072364333333334</v>
       </c>
       <c r="N4">
-        <v>33.296254</v>
+        <v>18.217093</v>
       </c>
       <c r="O4">
-        <v>0.6410544371704925</v>
+        <v>0.4407767221912973</v>
       </c>
       <c r="P4">
-        <v>0.6410544371704925</v>
+        <v>0.4407767221912974</v>
       </c>
       <c r="Q4">
-        <v>0.04570835757444445</v>
+        <v>0.3368846526061111</v>
       </c>
       <c r="R4">
-        <v>0.4113752181700001</v>
+        <v>3.031961873455</v>
       </c>
       <c r="S4">
-        <v>0.008233067676825445</v>
+        <v>0.3272707040891</v>
       </c>
       <c r="T4">
-        <v>0.008233067676825447</v>
+        <v>0.3272707040891001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,45 +726,45 @@
         <v>0.166435</v>
       </c>
       <c r="I5">
-        <v>0.1730089958232935</v>
+        <v>0.7424863601283017</v>
       </c>
       <c r="J5">
-        <v>0.1730089958232935</v>
+        <v>0.7424863601283018</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1421586666666667</v>
+        <v>7.704144333333335</v>
       </c>
       <c r="N5">
-        <v>0.426476</v>
+        <v>23.112433</v>
       </c>
       <c r="O5">
-        <v>0.008210963676175792</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="P5">
-        <v>0.008210963676175792</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="Q5">
-        <v>0.007886725895555556</v>
+        <v>0.4274130873727778</v>
       </c>
       <c r="R5">
-        <v>0.07098053306</v>
+        <v>3.846717786355001</v>
       </c>
       <c r="S5">
-        <v>0.001420570580356712</v>
+        <v>0.4152156560392018</v>
       </c>
       <c r="T5">
-        <v>0.001420570580356712</v>
+        <v>0.4152156560392019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05547833333333333</v>
+        <v>0.018445</v>
       </c>
       <c r="H6">
-        <v>0.166435</v>
+        <v>0.055335</v>
       </c>
       <c r="I6">
-        <v>0.1730089958232935</v>
+        <v>0.2468560263027583</v>
       </c>
       <c r="J6">
-        <v>0.1730089958232935</v>
+        <v>0.2468560263027583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>18.217093</v>
       </c>
       <c r="O6">
-        <v>0.3507345991533317</v>
+        <v>0.4407767221912973</v>
       </c>
       <c r="P6">
-        <v>0.3507345991533317</v>
+        <v>0.4407767221912974</v>
       </c>
       <c r="Q6">
-        <v>0.3368846526061111</v>
+        <v>0.1120047601283333</v>
       </c>
       <c r="R6">
-        <v>3.031961873455</v>
+        <v>1.008042841155</v>
       </c>
       <c r="S6">
-        <v>0.06068024080000328</v>
+        <v>0.1088083901268985</v>
       </c>
       <c r="T6">
-        <v>0.06068024080000328</v>
+        <v>0.1088083901268985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05547833333333333</v>
+        <v>0.018445</v>
       </c>
       <c r="H7">
-        <v>0.166435</v>
+        <v>0.055335</v>
       </c>
       <c r="I7">
-        <v>0.1730089958232935</v>
+        <v>0.2468560263027583</v>
       </c>
       <c r="J7">
-        <v>0.1730089958232935</v>
+        <v>0.2468560263027583</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.09875133333333</v>
+        <v>7.704144333333335</v>
       </c>
       <c r="N7">
-        <v>33.296254</v>
+        <v>23.112433</v>
       </c>
       <c r="O7">
-        <v>0.6410544371704925</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="P7">
-        <v>0.6410544371704925</v>
+        <v>0.5592232778087027</v>
       </c>
       <c r="Q7">
-        <v>0.6157402260544445</v>
+        <v>0.1421029422283334</v>
       </c>
       <c r="R7">
-        <v>5.541662034490001</v>
+        <v>1.278926480055</v>
       </c>
       <c r="S7">
-        <v>0.1109081844429335</v>
+        <v>0.1380476361758598</v>
       </c>
       <c r="T7">
-        <v>0.1109081844429335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.2610706666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.7832120000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.8141479955343128</v>
-      </c>
-      <c r="J8">
-        <v>0.8141479955343128</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1421586666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.426476</v>
-      </c>
-      <c r="O8">
-        <v>0.008210963676175792</v>
-      </c>
-      <c r="P8">
-        <v>0.008210963676175792</v>
-      </c>
-      <c r="Q8">
-        <v>0.03711345787911113</v>
-      </c>
-      <c r="R8">
-        <v>0.3340211209120001</v>
-      </c>
-      <c r="S8">
-        <v>0.006684939618363574</v>
-      </c>
-      <c r="T8">
-        <v>0.006684939618363574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.2610706666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.7832120000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.8141479955343128</v>
-      </c>
-      <c r="J9">
-        <v>0.8141479955343128</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.072364333333334</v>
-      </c>
-      <c r="N9">
-        <v>18.217093</v>
-      </c>
-      <c r="O9">
-        <v>0.3507345991533317</v>
-      </c>
-      <c r="P9">
-        <v>0.3507345991533317</v>
-      </c>
-      <c r="Q9">
-        <v>1.585316204746223</v>
-      </c>
-      <c r="R9">
-        <v>14.267845842716</v>
-      </c>
-      <c r="S9">
-        <v>0.2855498708652157</v>
-      </c>
-      <c r="T9">
-        <v>0.2855498708652157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.2610706666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.7832120000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.8141479955343128</v>
-      </c>
-      <c r="J10">
-        <v>0.8141479955343128</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>11.09875133333333</v>
-      </c>
-      <c r="N10">
-        <v>33.296254</v>
-      </c>
-      <c r="O10">
-        <v>0.6410544371704925</v>
-      </c>
-      <c r="P10">
-        <v>0.6410544371704925</v>
-      </c>
-      <c r="Q10">
-        <v>2.89755840976089</v>
-      </c>
-      <c r="R10">
-        <v>26.07802568784801</v>
-      </c>
-      <c r="S10">
-        <v>0.5219131850507336</v>
-      </c>
-      <c r="T10">
-        <v>0.5219131850507336</v>
+        <v>0.1380476361758599</v>
       </c>
     </row>
   </sheetData>
